--- a/StructureDefinition-ext-R5-ImplementationGuide.definition.xlsx
+++ b/StructureDefinition-ext-R5-ImplementationGuide.definition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4188" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4189" uniqueCount="381">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -560,7 +560,7 @@
     <t>Extension.extension:resource.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Resource|0.0.1-snapshot-3|Resource|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Resource|Resource)
 </t>
   </si>
   <si>
@@ -608,7 +608,7 @@
     <t>All published FHIR Versions.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-FHIR-version-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-FHIR-version-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:resource.extension:name</t>
@@ -747,7 +747,7 @@
     <t>Extension.extension:resource.extension:profile.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-StructureDefinition|0.0.1-snapshot-3|StructureDefinition|4.0.1)
+    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-StructureDefinition|StructureDefinition)
 </t>
   </si>
   <si>
@@ -963,9 +963,6 @@
     <t>Extension.extension:page.extension:generation.value[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-guide-page-generation-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:page.extension:page</t>
   </si>
   <si>
@@ -1064,12 +1061,6 @@
   <si>
     <t xml:space="preserve">Coding
 </t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-guide-parameter-code-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:parameter.extension:value</t>
@@ -1577,8 +1568,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="40.03125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="67.98828125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="23.22265625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="49.49609375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -10159,13 +10150,13 @@
         <v>77</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>186</v>
+        <v>77</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>291</v>
+        <v>77</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>298</v>
+        <v>77</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>77</v>
@@ -10203,7 +10194,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>109</v>
@@ -10234,16 +10225,16 @@
         <v>94</v>
       </c>
       <c r="L83" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="M83" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="M83" t="s" s="2">
+      <c r="N83" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="N83" t="s" s="2">
+      <c r="O83" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>77</v>
@@ -10312,7 +10303,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>116</v>
@@ -10415,7 +10406,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>118</v>
@@ -10520,7 +10511,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>124</v>
@@ -10563,7 +10554,7 @@
       </c>
       <c r="Q86" s="2"/>
       <c r="R86" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="S86" t="s" s="2">
         <v>77</v>
@@ -10625,7 +10616,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>133</v>
@@ -10728,7 +10719,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>148</v>
@@ -10771,7 +10762,7 @@
       </c>
       <c r="Q88" s="2"/>
       <c r="R88" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="S88" t="s" s="2">
         <v>77</v>
@@ -10833,7 +10824,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>151</v>
@@ -10936,13 +10927,13 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D90" t="s" s="2">
         <v>77</v>
@@ -10967,16 +10958,16 @@
         <v>94</v>
       </c>
       <c r="L90" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M90" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="M90" t="s" s="2">
+      <c r="N90" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="N90" t="s" s="2">
+      <c r="O90" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>77</v>
@@ -11045,7 +11036,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>107</v>
@@ -11148,7 +11139,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>109</v>
@@ -11159,7 +11150,7 @@
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>84</v>
@@ -11251,13 +11242,13 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D93" t="s" s="2">
         <v>77</v>
@@ -11282,14 +11273,14 @@
         <v>94</v>
       </c>
       <c r="L93" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="M93" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>77</v>
@@ -11358,7 +11349,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>116</v>
@@ -11461,7 +11452,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>118</v>
@@ -11566,7 +11557,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>124</v>
@@ -11609,7 +11600,7 @@
       </c>
       <c r="Q96" s="2"/>
       <c r="R96" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="S96" t="s" s="2">
         <v>77</v>
@@ -11671,7 +11662,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>133</v>
@@ -11697,13 +11688,13 @@
         <v>77</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L97" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="M97" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -11730,11 +11721,13 @@
         <v>77</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="Y97" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z97" t="s" s="2">
-        <v>332</v>
+        <v>77</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>77</v>
@@ -11772,13 +11765,13 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D98" t="s" s="2">
         <v>77</v>
@@ -11803,14 +11796,14 @@
         <v>94</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>77</v>
@@ -11879,7 +11872,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>116</v>
@@ -11982,7 +11975,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>118</v>
@@ -12087,7 +12080,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>124</v>
@@ -12130,7 +12123,7 @@
       </c>
       <c r="Q101" s="2"/>
       <c r="R101" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="S101" t="s" s="2">
         <v>77</v>
@@ -12192,7 +12185,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>133</v>
@@ -12221,10 +12214,10 @@
         <v>88</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -12295,7 +12288,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>148</v>
@@ -12338,7 +12331,7 @@
       </c>
       <c r="Q103" s="2"/>
       <c r="R103" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="S103" t="s" s="2">
         <v>77</v>
@@ -12400,7 +12393,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>151</v>
@@ -12503,13 +12496,13 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D105" t="s" s="2">
         <v>77</v>
@@ -12534,14 +12527,14 @@
         <v>94</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>77</v>
@@ -12610,7 +12603,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>107</v>
@@ -12713,7 +12706,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>109</v>
@@ -12724,7 +12717,7 @@
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>84</v>
@@ -12816,13 +12809,13 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D108" t="s" s="2">
         <v>77</v>
@@ -12847,14 +12840,14 @@
         <v>94</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>77</v>
@@ -12923,7 +12916,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>116</v>
@@ -13026,7 +13019,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>118</v>
@@ -13131,7 +13124,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>124</v>
@@ -13174,7 +13167,7 @@
       </c>
       <c r="Q111" s="2"/>
       <c r="R111" t="s" s="2">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="S111" t="s" s="2">
         <v>77</v>
@@ -13236,7 +13229,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>133</v>
@@ -13265,10 +13258,10 @@
         <v>185</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -13339,7 +13332,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>109</v>
@@ -13370,14 +13363,14 @@
         <v>94</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>77</v>
@@ -13446,7 +13439,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>116</v>
@@ -13549,7 +13542,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>118</v>
@@ -13654,7 +13647,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>124</v>
@@ -13697,7 +13690,7 @@
       </c>
       <c r="Q116" s="2"/>
       <c r="R116" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="S116" t="s" s="2">
         <v>77</v>
@@ -13759,7 +13752,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>133</v>
@@ -13788,10 +13781,10 @@
         <v>88</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -13862,13 +13855,13 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D118" t="s" s="2">
         <v>77</v>
@@ -13893,14 +13886,14 @@
         <v>94</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>77</v>
@@ -13969,7 +13962,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B119" t="s" s="2">
         <v>116</v>
@@ -14072,7 +14065,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>118</v>
@@ -14177,7 +14170,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>124</v>
@@ -14220,7 +14213,7 @@
       </c>
       <c r="Q121" s="2"/>
       <c r="R121" t="s" s="2">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="S121" t="s" s="2">
         <v>77</v>
@@ -14282,7 +14275,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B122" t="s" s="2">
         <v>133</v>
@@ -14311,10 +14304,10 @@
         <v>88</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
@@ -14385,7 +14378,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>148</v>
@@ -14428,7 +14421,7 @@
       </c>
       <c r="Q123" s="2"/>
       <c r="R123" t="s" s="2">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="S123" t="s" s="2">
         <v>77</v>
@@ -14490,7 +14483,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B124" t="s" s="2">
         <v>151</v>
